--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/58_Mersin_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/58_Mersin_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24EC220F-F7E4-4558-AA68-A96CBE434913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6450D15-FC76-45D9-961F-E8B2AC48ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{8CA53C45-4F33-417C-B44C-DA6333FF07F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="673" xr2:uid="{CB118515-79ED-494E-90B2-9271C8704DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D2FFF9A6-D637-4D9F-82C1-F1C9EBCEB4A6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3E8B506A-65F1-4FDF-87FB-C612D5376F33}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{E7619F26-0FD2-404F-BCAC-9848212DC72D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BAC2DA9E-105A-4AB1-BACD-CBD8F3CBB881}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7707AB03-F739-4E57-A18D-489113E40EBC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C06A4C5C-E76E-46E4-9726-4378976B99F9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F0554C97-9BED-434D-B382-E49DD165699D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8E31DBB6-A5B0-4205-A8FA-05CB1F1E364A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BD5DE87E-AA3B-4011-822C-4A73A350AC2D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4A724F58-8F0C-4920-9B2B-886E05D0D4DD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3D76712A-2590-4DD0-87AA-5F4C5AEB5219}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D6A831F0-908D-4AF4-B0E1-BB4B1D8898B7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A4CC5BAF-3790-4065-A30B-401FAA76DC08}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1683037B-AA6F-4945-B6F5-FEC44FE0CCB0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F699BB97-47BD-4357-A9B1-0FD7197F38A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FEB030-A05F-4B8D-AA3A-8857B3CED705}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2582,18 +2582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D51DEAA-E8C2-4FD9-85F8-9CC34B4CE082}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D1AA521-71F1-4A5E-A9B5-34A835FC7BAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D31884A-C31A-4727-8646-80532D803417}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{817F0A27-8999-4B88-8B24-075F6B035BE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A6F4697-9555-41FC-B6E5-D77823191AB7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33DFAFA0-D350-4FB8-8C5A-4BEBF1B0F617}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13E1C709-3554-41BF-ADDF-907DAFCB269A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2010E83D-4C77-4AE2-A0EC-7849E43C72A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91836FCA-1660-47F2-BEE5-F0F6C10C5258}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D91B14BB-154B-4E28-AA41-6DA3E2831A2D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC9458C2-8198-4158-ACAF-3F17C0F1601C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3C2FCF3-ED09-4D11-B812-B983D5350215}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C6995A1-1B3B-4CDD-865A-1CA9D4CCBD4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60744A9E-8C65-408B-931A-EE6FF6154D46}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AC58DDB-5343-4A99-945A-42CF0A1A57B4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1780A030-B4DD-43CF-B326-F7BC1DB8615C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD054FCA-7E5F-47FD-A5AB-888ED3CBE119}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4093C727-3B0C-489F-B219-A989D2FE736F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{682E77FF-9C33-4FFB-A13E-8F202AD1162C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAA113CB-87A3-4B04-8AE5-E7F2E270D52A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{772ACB94-215A-4400-8EEF-0FB3FC720C00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9444BB11-88D1-4806-BB0F-ECC3A495563D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5633D284-B7CF-4042-9AEB-DF39ED26BC83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A2C756A-2F34-48D8-B2DD-73671F17B53A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2606,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257F1C7C-DD08-4E0F-98ED-66C5D5E6F9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C72D33-4219-43D0-9B92-297535C25DD4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3864,18 +3864,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9F813EC-5B57-4B91-A3B5-1C4E0C7D7D8F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D82A7A43-8276-448B-BF0D-C92C545EAD00}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38AA2B4E-EDDA-401F-A08F-FB4E211087B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F8375872-A5BC-47B8-983D-C8FA520D0612}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6D38184-8CAE-4073-89D5-821B66367CCD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43C040F8-FA54-497A-814D-1687B8BCB651}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACD5BC8C-F07F-4F0E-85CA-C97BF41AE588}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91D8152A-DD5E-4D05-A1D5-94FD596CB8F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89525284-8F87-462A-8694-D304E80DAEF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C709F83-43A1-4EC0-B7E9-46753AF3FAD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBABAF7F-7A82-4B81-B25C-0C2CD5E18BE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77B978C5-DD55-48E6-AB57-135F142C7885}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98B48D4C-045B-4D2E-8E44-12AF168DD43B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58CC474F-3227-4E23-BF4D-CBAEA6FE2093}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C52D701-EA46-4240-9BB9-C7D670348A29}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B8920E3-6EF1-491B-9B79-B22DFC6477E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{432763DD-BE5B-48F8-B858-D46E7F94D796}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D60BEC1-9A51-498B-AF6E-A1929297B4F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42C7D107-0B9E-4EE8-A0A8-2F8982A67666}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D8A64B2-BFDC-4533-B227-B80603DAEC7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3563707F-B0D3-4E02-89D7-3BBB84B5C672}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{286CAA44-820D-4112-86FB-4F27FC8E6C77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BABC150-BBFC-46B7-9827-CD48CA35FAEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7AD2D92-3D4E-4F1A-B844-B4E8574D103F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3888,7 +3888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979D07BD-E1A5-4711-8B49-AA1905307023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0185EA-49AF-45B9-A15A-2A6BE7442E8D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5144,18 +5144,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04FC28D5-A0C7-434B-AAE5-8AEC3E3BCB9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B49CE0F3-B699-44D7-AC98-73E2CD49EFE4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5022EA5B-0363-4029-B187-B744EF8F539A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1AED36D-3A99-49DF-98BA-D07F15913FA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{547CAB83-B440-4690-9C52-614A7AA64E5C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8600AD3-8409-470D-A116-90672A90F778}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35853546-FFFE-4C56-8E93-06DA89FAE009}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F52071DF-D458-442B-A636-86A541ACFD41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{151D0615-19ED-4F79-8FA0-B4230EE8EB13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CB95834-85DC-4E5F-8609-8C6DEFA9565F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1C092AE-5B65-46FD-A8DF-AEAA06CBED0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A701813-64B2-4793-9E5A-6758F557C22A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{948164E1-5CED-4BEC-AAA7-1A8D01C7F9DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C717B96B-1C81-418A-A89C-4A2785D3A200}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A00F343-B10C-4622-A7CB-697C326782A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE52B154-C7F0-4A61-BFF1-1152EB11E3CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE315F81-449E-4E66-8F68-69FFC099C153}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C2D3AD9F-9FDF-4ECD-A82A-EB57100DD469}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAEE4C9C-389D-42AF-9A47-3917F6F0B3EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14EB7362-5CF1-4089-A7EE-42BFFDE4FB17}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{661AA712-7F91-4519-91C9-573BA21BC96D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{406B965D-46A1-493B-84A7-28BDD38FD712}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C1016E2-DACF-4759-AA96-FB8B2DBB3AA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E660A66D-139C-4CBB-93CD-0A8909EC2F05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5168,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2440829-D371-4619-B8DB-2F7551D12C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9D718C-5193-400E-98AB-908C84E35296}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6424,18 +6424,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{056E216A-49D2-4AB5-B5C6-E2C65449A293}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DFD913E-B5A3-4BDB-B9C0-E913E4FEB279}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{755B570E-DCBE-4B4A-BD7C-C5C5E1C39B9D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6E8BFB8-B023-4598-9F13-9D5E38AD5D4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACA5A379-7160-40E1-8999-88A468547455}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CFD64025-E020-4778-AE2E-3F341F4A7F8B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55BDC8D0-4E95-4939-97E1-F2D96A8328F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FB8A553-0E03-4D5F-BDCD-CB25A8788AA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A19865AD-6686-4C6E-88E7-80CF67DEBF38}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A847DE6-53A1-4081-B30F-DD37C15524DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7467E428-91BD-4E9F-A326-1B337C94F546}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDC1D043-CD9B-4DE8-A4F8-772C3733F0F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCFAEBF1-FBCC-42E2-97A6-CA200FD01496}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14677CCF-CFC1-4B91-B62F-7FB3565C92E0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B0B7ED2-9E60-4952-A1D2-E5950621AEB5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EFA2B13C-D111-44BB-A85A-37DD79AA93FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A66B4A2-EA21-4D56-9E7E-1A60FF5FE497}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A9D5377D-46EA-452C-B430-C588B3CD0B87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30EDFD67-99D1-4716-8702-05F233D9AF16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27484081-EE88-41C2-816A-B6C10CC877A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1774CD0-5F27-44D5-94AB-D77CAB9F83AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF0D4C96-7C0C-40A8-A655-F6AC706A6072}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{376531DC-5405-475D-803C-4E5C64A7A835}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D126289B-0A61-4D73-A13A-C4EBA80F2F44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6448,7 +6448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1DA473-1385-4821-867A-C74DF1CD6BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBBBDBA-FBA3-44A8-A497-A87C1FEEB2F4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7717,18 +7717,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B09D41DA-91E6-4BA9-89BB-1D6704E7F573}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46CBDDEA-6E71-4B89-98A6-9D377F085C88}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD882054-C017-440A-B3AC-E4A210BDE12F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6AD3818F-3369-4A23-B06F-25E2268B4FE3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{945B600D-0690-433F-8A5B-0DD0735628D5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2AEA98D1-18AA-46DC-BD20-3B6B319C4F72}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F45B807C-3DB9-4715-BEB1-C7A70149F508}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DA64267-2F4A-48CE-A864-03229A7C4974}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9074978B-4B0D-415F-8D67-EC5F10DED2FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23AD5E9F-6C84-429F-BFB7-2FB51F3EA18F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3444022F-011F-490A-9AD6-3737C9C45D80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6352CCB5-6BEE-4636-AF6F-FD3E595E10CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB12A99F-A4BB-4B7E-9072-D83BD8917520}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F861AD0E-116A-42D1-8050-3BB9F6F682D0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{519FAF22-EEF6-45C9-9BEC-515AECEE7BEA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8540473D-2E39-4B0B-9F28-21CEBEBDFB29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE6ED01-F8D4-4164-A803-F8440EE6559B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93CB4CB6-FEE8-4503-9B89-218C93A3E088}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74CD7F86-395E-403B-ADCB-17A5A788BB08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{883E9E9F-A38A-4F54-B319-246C740616DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E6865F9C-9682-44A7-BBA9-8D80908DE0C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{059AE358-8417-4E1B-8479-1580C44C79FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C164FED-1009-4785-9FB4-B1580A103E9F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E540924-39B1-4F63-9C6D-843F5F12FB2B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7741,7 +7741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552557DA-522B-4307-8027-A10765825A76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1BA11F-9079-4515-A3A0-826E5579136D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9006,18 +9006,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE78CCCB-3ECF-414C-81A3-0F259FEE8540}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECA86E69-F3A7-4EC7-83E8-79CC127E09F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E3D4BB0-31F6-43EB-AFD1-D52C4D88DC79}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2C105555-1E2E-474F-81B1-4B034DD5052E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B23C2B72-7CD2-40A1-8D63-27589F053EEE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE36F20D-341B-486D-BEEB-2DD1A6E59EC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B6A6356-049D-4B4E-8D68-C037F20A24A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{502D3838-BE27-416C-B775-4CB42C2199DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CDAA13A-99B1-46C3-9EDE-958BE95AFA11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53023E09-F9B8-4B47-8EA6-49ADAB3E3F10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{833898A2-7056-485B-860E-A57A82B663C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A048E39-6D1B-4981-A51C-4C7D275A2769}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3137800-88B5-464F-974D-5C5BAB29AEE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49178165-6796-45D2-B9E8-F6ED80638DDB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19261E53-DC1B-4605-8027-63FA4564CECF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B11BF82-C12C-4313-BD66-DD493504E369}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF0E6609-DDAE-4D32-B37F-8FFDDB76CAC0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE6CFDD4-C005-4731-A6FF-60A445E5D2BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27A28508-C6F0-4942-A7E8-B8B53287A889}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B7026AD-86D3-4F18-B4B9-E308ADB6DA88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90939B78-E257-4AD8-A3EC-D982EC7D570A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD6E0017-7F06-4FCF-BAA2-E247D818245E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0550D007-99F9-4DCA-9C16-0ABA7025A14B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7E54F3A-4BB0-4326-BA4C-9082334AA62D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9030,7 +9030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4456E4-C1C1-48B0-BDD4-EB2D57046EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABA4CD1-71E5-4F6B-8182-FE8411D01DCF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10295,18 +10295,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BA42740-62CC-4081-8F6B-B77DE52C9994}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AA5A003-55BD-41DC-B311-D14B41D3408A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{604CAB93-F461-456F-8EA7-5F47CBABCE5E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F06C136A-652C-40D7-BFF3-F060B89F1EF1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3825BCD-7763-4B9E-93CD-0F6FBE84C119}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EBBD027E-F123-4AC0-9B11-1DCD5F212A99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2ADDCDE0-BEB1-44E3-A790-BC8AE5D59055}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DFBFF7C-DA04-4E9C-A8AB-01CFD9BD8FAC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD22C3DE-094B-4114-A7D7-0DCB5548A2C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A5BB90F-8FC7-4616-9939-53A30A48EFE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{338C7103-666F-4D51-ADED-1985DAD9CA8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D33AB916-D8B7-46A2-9AB1-259669E00323}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52E3FC23-D2F0-4ADA-9452-CEEABB244977}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3526784-2CBD-4D6C-A5C4-4EDE53AFA6C2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6109788C-2541-480A-834F-BF30937D79B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CE7744B8-518E-4215-AC43-19D855A3A397}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04EBCD72-EB3A-4E8C-9DB3-389795D11AAC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45AC4699-5C77-47A7-8D25-AAC1C0BE0A13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A78865D-1E5C-499B-88F4-720A1E7D7624}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01253EAC-5139-4A71-B28C-41251F4C9AD1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A99E5C3-8493-494E-88CF-087E9CEDC0ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5DDE948D-E337-4F79-A463-BBE64C65FE05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DAD54DD-E83F-48D6-919A-D8CEFDFDD1FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E408FC64-10AD-4862-B135-DFBFEA353336}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10319,7 +10319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFC0E89-725E-4523-992B-2E71740B91A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F8B17F-F90C-4B68-8FF5-75A40BC973A8}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11585,18 +11585,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E30C075A-7D38-4EFA-9B5B-CB2BB7C80DB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6472C07-808B-45BC-975A-12D198B50FFA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{86B18C0F-293A-4D1E-93B7-BFDBBA446ED7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD6DDE80-2616-4195-912F-83F31E7B0115}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38F13752-5DDB-4ADA-8A83-EE0DAC638C54}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFE6CC0E-178D-4371-8FB5-DA21CC5E9643}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6357B99A-4DCF-4E32-870C-2538D3F7A403}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC74B81D-D037-423F-83CF-4236DBD3B647}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C4B2900-90C3-4CD0-A4A3-1043B86E1036}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{879E6EEA-41D0-421A-9809-72DEB3FEE284}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EEDFEA6-2A55-465C-850D-658215525666}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{016A46D9-2D50-4B50-A905-0D17E443E047}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA5FFCEA-119A-47DD-B3FE-B0575EB2F148}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFDC03BA-5B61-413F-A694-17336A94C9F2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF7D816D-D525-4DE9-98FF-CF3CDB90D2D5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E29A4E31-F1E5-4EFE-ACB2-31084437D20D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1ABF2F7-B8AF-4032-AC3C-59E3A28A8696}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B305B26-DEFA-49EE-987F-A3794CED4F1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AEBBAA1-0B41-4F02-9711-2F8B03006856}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01F68BD4-D07A-48CE-95C0-EB38C3A37E7C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6324B63F-321E-48A9-AEB7-C37E726CA0F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0D681BC-B658-46E4-853D-ACDB3179B8E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACE69B90-F412-4429-A5B9-4E7C7FFB21E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D20D51C-3E24-4AD9-A91C-EDDA196C23C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11609,7 +11609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B15772-4F82-4874-ACB5-F4EF1D368F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2AE1D-A3E9-4303-BDED-85E23EECDC74}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12875,18 +12875,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{219C9886-F8E8-447C-BF32-0A43A910DF8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3256AC38-932D-4F00-80CF-B232D5426574}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{242CA7EB-FD44-422E-926F-A9FEDF858B2E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A475C61D-A5E5-455E-84A0-06F5EBEA946D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{764489A8-B059-4F6C-92A6-FF8B94363E8B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{61C061F3-A9EC-4E5D-B712-768295E25B4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4937BD7F-0E26-4E94-9AF3-38003F67A451}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FC51D92-5801-42B8-9314-27F7F0AE41C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8DE956B-96B1-4177-BE64-5A1B646CDC41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{40087CB6-60BD-4FEA-8F84-1AA869D06DA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{842491EC-9B92-4FF4-BA21-893E244D168B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78BAA24F-FBBC-414A-9358-B504855119C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A819F3C4-6FF9-428E-A331-F41FD4A9CC0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DC186D3-06BA-449A-8D5E-914A31188BB0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0DD13597-E1B6-4871-B29D-3BE2006F1013}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24532A0E-C159-41BB-B0EA-345BEA067FF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0793DD66-5358-4AD7-A2DD-ACD160A96749}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B64CF43F-AC02-41FC-8CEB-FA8DB6748CD5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B788512D-16BC-410A-B90B-1F9980140AEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F88F50EA-CEBB-4670-92EE-83EB157AF81B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18D1F0B9-E7D6-4C26-810C-588C99AF907C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A4A7CDB-E87F-44F0-BA0E-795071EC29B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65A2838C-2261-4F99-A229-1B7C4CC0DB6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{313C5EFE-0F63-4735-A381-B7B5028DC719}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12899,7 +12899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F7C4AF-820A-4FDD-BB08-943E051868E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70472256-33E6-4EEF-82BF-B6D98D18F29D}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14165,18 +14165,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F906488-44E8-47B8-AE4F-4D28CE3A73C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E9197FE-A032-4B98-A0BF-C3D1C1847D88}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{80466787-DEEB-4A59-B945-13580D6AF3A2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84F09280-CE16-44FF-9EAD-075DF93C6E85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7D30E6E-4C2F-43C8-8772-9C79D763E138}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2E7D80A-0D58-49E9-B95F-EA665601ACC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6322908F-4DF9-4EC3-ACCB-9F3CFB305898}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C42F693-4288-4A86-8D3E-07B34ECB0606}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22D38441-32C2-4572-A21E-1160C9CCFD28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E16D5D7-D29E-4495-97EB-6FF24083552B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79CB4B57-F075-41EA-BEC6-C7A48F2D96C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{029DD35E-17A9-4B56-9EA9-46E076A42460}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77CE1A05-F748-442B-9956-B19BADB4D2EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EADDB9F5-B4EF-485B-A2AA-8EE02E2E5D76}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{60CCEAB5-3A6A-4B05-9411-15601D875272}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B7D0EBA-08B2-4B1B-BD79-68000B04244C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B656B929-7713-4844-B784-62EAB6E3F84D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1030CDE2-6D80-410E-9744-713D83CA5B98}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{254CCC0F-D41D-44D8-9830-95ED3A80CD0E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AB57AE3-5BE7-4FDC-BD68-3E1126AA5439}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5261F06-3127-45AC-9162-7A09AA06578B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F67F79F7-09D5-46F0-8494-6234CD1DD529}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23ACCAA1-31DB-4B70-9C48-D9F121374393}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A25FF8C-2B6D-4E4F-AC14-199B1E7C6921}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14189,7 +14189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B7B26F-BE5C-482A-99D7-8BA45641F41B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B98060-6F31-4286-8184-B76904F394D5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15455,18 +15455,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2860999E-816C-48B7-8D11-2879F4D15268}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A988D41-2DDF-437F-985B-C369802BEEDB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{369464AE-9260-4B2E-B760-9E7CB337B1AA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C10708C-0ECD-4AEE-A6C5-892150ACCB13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B78E7E35-6C46-469F-B90A-B3B637990FAE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C204DDEE-352B-4E1F-A7E4-865DAE676B7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56F7FF70-7EBC-4725-B75F-54B6A439C7BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A5DAABE-E9CF-497A-A0D4-EBD5E7ADFBBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94213544-A9C2-4ECC-95FE-96E76C132858}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2F16795-8121-40DA-A840-055E5207CF42}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F197B1FD-9E9A-4F8D-BF25-A491E8B2CA80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DF8F841-B756-4251-A9DC-2493E2CAD31D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F5F8639-BF80-482B-A365-A123BABF3105}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3752F94-9ADC-47B0-8D39-6FB50EEAA074}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC8B3FFF-CA01-40D7-A90C-B38572FE4DA8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AE35FBE2-CA2F-442F-835C-F75D20BAD43D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D1DB8B0-C684-48E1-AD82-6B3F789EFA63}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{401B94CD-CDC4-4893-9499-C2FAA95E97E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B97BC3C-B7EB-4F48-9C93-DA98827F2D15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2197124C-B10A-4C48-88FD-B5DEBBC83620}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5380E94-A923-404A-B4F9-F03F6B4DA2E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A68DD330-FED6-47C7-8298-263E9B51AF17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49FA94F2-B224-4600-A5EB-E004F948CB2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4393B97B-F5DA-4C1F-9298-E9E352A8FCEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15479,7 +15479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C82C62-DEB9-4A4D-B046-840A4262864C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621C311D-7FC8-4633-AD5C-EDF8B5FE4567}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16741,18 +16741,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CE699E0-C61E-4626-A357-33E0E5D7462E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2010718-D48A-4BF7-A5F8-B3D6DE266FEB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C87DF20-80E9-4DCE-9C7F-ED942DBF6AAF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F62EE8E-2D65-41F8-8116-3BC6FD2AC60C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80530744-C83B-4074-A633-CBD48B6485B7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C4F59754-68F3-433E-B728-55E082256821}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4EEC22B-C1DF-4AFA-AECC-92B577A76BFC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A94D9A19-C9DA-40D3-814F-8DF8FB4A8F7A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36964850-3507-4E30-BF12-978A70464C51}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F143404C-6CFF-43CA-A49A-B8D649E042BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E253E741-6B9F-43CC-8E4A-C17BFE33D434}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88DDD160-D783-457D-AA8E-5D742F71C422}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A42F20A-6DE6-4FA6-BF14-2486097017F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83AA984A-ACE6-418A-AB76-D74F6A4B5B66}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3EE6134-8C89-423F-A8AD-55E50CBB7D3F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A6892B64-C4EF-4B6B-A991-A9078BD20B0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11104F5E-F752-4E6E-8BB9-7B53729F092E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A400FE8-FD83-46BC-B987-7CF0859834C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DB94CCB-5E1A-4C09-9205-D9B9E3962857}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{698E9EC9-0F62-41F9-9414-2BF805FF300F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A866E87-96C4-487C-8980-DB1E247D4502}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F691D501-DE5D-403A-BB93-2822E99357AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08BD9BF6-431D-4092-9DD8-B8791AE8CB65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA69EEBE-E4B9-4CF0-AC27-84A6861D52D3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
